--- a/data/Instances/InstancesS/outputS-0.xlsx
+++ b/data/Instances/InstancesS/outputS-0.xlsx
@@ -458,57 +458,57 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
@@ -518,152 +518,152 @@
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>60</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
@@ -695,7 +695,9 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -708,12 +710,12 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
@@ -726,9 +728,7 @@
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
@@ -737,7 +737,9 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
@@ -763,9 +765,7 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
@@ -785,12 +785,8 @@
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
@@ -805,9 +801,7 @@
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
       <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
@@ -834,9 +828,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -863,9 +855,7 @@
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
@@ -882,7 +872,9 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -893,13 +885,9 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -909,7 +897,9 @@
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
+      <c r="AA5" t="n">
+        <v>1</v>
+      </c>
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
@@ -924,11 +914,11 @@
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
+      <c r="AP5" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR5" t="inlineStr"/>
       <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
@@ -940,44 +930,28 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="n">
         <v>1</v>
@@ -986,28 +960,20 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
+        <v>1</v>
+      </c>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="n">
         <v>1</v>
       </c>
@@ -1018,37 +984,27 @@
       <c r="AP6" t="n">
         <v>1</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="inlineStr"/>
-      <c r="AW6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -1059,11 +1015,11 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
       <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
@@ -1073,7 +1029,9 @@
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
+      <c r="AA7" t="n">
+        <v>1</v>
+      </c>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
@@ -1083,16 +1041,18 @@
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AK7" t="n">
+        <v>1</v>
+      </c>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
+      <c r="AP7" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
       <c r="AT7" t="inlineStr"/>
       <c r="AU7" t="inlineStr"/>
@@ -1104,12 +1064,14 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -1124,19 +1086,23 @@
         <v>1</v>
       </c>
       <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+      <c r="Y8" t="n">
+        <v>1</v>
+      </c>
       <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
+      <c r="AA8" t="n">
+        <v>1</v>
+      </c>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
@@ -1151,11 +1117,11 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
+      <c r="AP8" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
       <c r="AT8" t="inlineStr"/>
       <c r="AU8" t="inlineStr"/>
@@ -1167,12 +1133,14 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -1183,31 +1151,31 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+      <c r="Y9" t="n">
+        <v>1</v>
+      </c>
       <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
+      <c r="AA9" t="n">
+        <v>1</v>
+      </c>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
@@ -1216,11 +1184,11 @@
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
+      <c r="AP9" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr"/>
@@ -1232,12 +1200,14 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -1248,23 +1218,23 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
+      <c r="AA10" t="n">
+        <v>1</v>
+      </c>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
@@ -1279,11 +1249,11 @@
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
+      <c r="AP10" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr"/>
       <c r="AU10" t="inlineStr"/>
@@ -1295,12 +1265,14 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -1313,19 +1285,21 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
+      <c r="AA11" t="n">
+        <v>1</v>
+      </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
@@ -1340,11 +1314,11 @@
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
+      <c r="AP11" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR11" t="inlineStr"/>
       <c r="AS11" t="inlineStr"/>
       <c r="AT11" t="inlineStr"/>
       <c r="AU11" t="inlineStr"/>
@@ -1356,7 +1330,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -1368,22 +1342,20 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
-      <c r="V12" t="n">
-        <v>1</v>
-      </c>
+      <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
@@ -1392,12 +1364,8 @@
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
       <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
       <c r="AI12" t="inlineStr"/>
@@ -1407,14 +1375,14 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
+      <c r="AP12" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU12" t="inlineStr"/>
       <c r="AV12" t="inlineStr"/>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="inlineStr"/>
@@ -1423,21 +1391,21 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>1</v>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -1457,9 +1425,7 @@
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="inlineStr"/>
@@ -1467,7 +1433,9 @@
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
+      <c r="AM13" t="n">
+        <v>1</v>
+      </c>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr"/>
@@ -1475,18 +1443,18 @@
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
       <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
+      <c r="AW13" t="n">
+        <v>1</v>
+      </c>
       <c r="AX13" t="inlineStr"/>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1526,24 +1494,32 @@
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
+      <c r="AM14" t="n">
+        <v>1</v>
+      </c>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
       <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
+      <c r="AU14" t="n">
+        <v>1</v>
+      </c>
       <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="inlineStr"/>
+      <c r="AW14" t="n">
+        <v>1</v>
+      </c>
       <c r="AX14" t="inlineStr"/>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -1583,7 +1559,9 @@
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
+      <c r="AM15" t="n">
+        <v>1</v>
+      </c>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr"/>
@@ -1591,111 +1569,79 @@
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
       <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
+      <c r="AU15" t="n">
+        <v>1</v>
+      </c>
       <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
+      <c r="AW15" t="n">
+        <v>1</v>
+      </c>
       <c r="AX15" t="inlineStr"/>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="n">
-        <v>1</v>
-      </c>
+      <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
-      <c r="V16" t="n">
-        <v>1</v>
-      </c>
+      <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
+      <c r="AM16" t="n">
+        <v>1</v>
+      </c>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="n">
         <v>1</v>
       </c>
-      <c r="AR16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="inlineStr"/>
       <c r="AW16" t="n">
         <v>1</v>
       </c>
-      <c r="AX16" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX16" t="inlineStr"/>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1706,7 +1652,9 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1717,12 +1665,16 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
@@ -1739,12 +1691,16 @@
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AK17" t="n">
+        <v>1</v>
+      </c>
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
+      <c r="AP17" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -1758,12 +1714,14 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1776,19 +1734,23 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+      <c r="Y18" t="n">
+        <v>1</v>
+      </c>
       <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
+      <c r="AA18" t="n">
+        <v>1</v>
+      </c>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
@@ -1803,11 +1765,11 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
+      <c r="AP18" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="inlineStr"/>
       <c r="AU18" t="inlineStr"/>
@@ -1819,12 +1781,14 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1839,12 +1803,12 @@
         <v>1</v>
       </c>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
@@ -1866,11 +1830,11 @@
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
+      <c r="AP19" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
       <c r="AT19" t="inlineStr"/>
       <c r="AU19" t="inlineStr"/>
@@ -1882,72 +1846,118 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
       <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
       <c r="O20" t="n">
         <v>1</v>
       </c>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
+      <c r="X20" t="n">
+        <v>1</v>
+      </c>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
+      <c r="AA20" t="n">
+        <v>1</v>
+      </c>
       <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
+      <c r="AC20" t="n">
+        <v>1</v>
+      </c>
       <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
+      <c r="AE20" t="n">
+        <v>1</v>
+      </c>
       <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1</v>
+      </c>
       <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
+      <c r="AM20" t="n">
+        <v>1</v>
+      </c>
       <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
+      <c r="AO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="n">
         <v>1</v>
       </c>
       <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="inlineStr"/>
+      <c r="AT20" t="n">
+        <v>1</v>
+      </c>
       <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
-      <c r="AW20" t="inlineStr"/>
+      <c r="AW20" t="n">
+        <v>1</v>
+      </c>
       <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
+      <c r="AY20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -1967,40 +1977,42 @@
         <v>1</v>
       </c>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
+      <c r="AA21" t="n">
+        <v>1</v>
+      </c>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>1</v>
+      </c>
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
+      <c r="AP21" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
       <c r="AT21" t="inlineStr"/>
       <c r="AU21" t="inlineStr"/>
@@ -2012,7 +2024,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -2030,19 +2042,23 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+      <c r="Y22" t="n">
+        <v>1</v>
+      </c>
       <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
+      <c r="AA22" t="n">
+        <v>1</v>
+      </c>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
@@ -2057,11 +2073,11 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
+      <c r="AP22" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
       <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr"/>
@@ -2073,33 +2089,51 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
@@ -2107,36 +2141,50 @@
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
+      <c r="AC23" t="n">
+        <v>1</v>
+      </c>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
+      <c r="AJ23" t="n">
+        <v>1</v>
+      </c>
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="inlineStr"/>
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
+      <c r="AP23" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="n">
         <v>1</v>
       </c>
       <c r="AS23" t="inlineStr"/>
-      <c r="AT23" t="inlineStr"/>
+      <c r="AT23" t="n">
+        <v>1</v>
+      </c>
       <c r="AU23" t="inlineStr"/>
       <c r="AV23" t="inlineStr"/>
-      <c r="AW23" t="inlineStr"/>
+      <c r="AW23" t="n">
+        <v>1</v>
+      </c>
       <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
+      <c r="AY23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
@@ -2148,9 +2196,7 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
@@ -2161,25 +2207,17 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="n">
-        <v>1</v>
-      </c>
+      <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
@@ -2194,9 +2232,7 @@
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
       <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU24" t="inlineStr"/>
       <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="inlineStr"/>
@@ -2205,12 +2241,14 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -2223,12 +2261,12 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
@@ -2241,9 +2279,7 @@
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
@@ -2252,11 +2288,11 @@
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="inlineStr"/>
+      <c r="AP25" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
       <c r="AT25" t="inlineStr"/>
       <c r="AU25" t="inlineStr"/>
@@ -2268,7 +2304,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -2286,9 +2322,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -2315,9 +2349,7 @@
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
       <c r="AT26" t="inlineStr"/>
       <c r="AU26" t="inlineStr"/>
@@ -2329,73 +2361,81 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
         <v>1</v>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
         <v>1</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
       <c r="J27" t="n">
         <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
       </c>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
       <c r="O27" t="n">
         <v>1</v>
       </c>
       <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
         <v>1</v>
       </c>
-      <c r="S27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
       <c r="T27" t="n">
         <v>1</v>
       </c>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="n">
-        <v>1</v>
-      </c>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>1</v>
+      </c>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="n">
         <v>1</v>
       </c>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
+      <c r="AC27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1</v>
+      </c>
       <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="n">
         <v>1</v>
       </c>
       <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="n">
         <v>1</v>
       </c>
@@ -2403,9 +2443,13 @@
         <v>1</v>
       </c>
       <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
+      <c r="AM27" t="n">
+        <v>1</v>
+      </c>
       <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr"/>
+      <c r="AO27" t="n">
+        <v>1</v>
+      </c>
       <c r="AP27" t="n">
         <v>1</v>
       </c>
@@ -2416,10 +2460,10 @@
         <v>1</v>
       </c>
       <c r="AS27" t="inlineStr"/>
-      <c r="AT27" t="inlineStr"/>
-      <c r="AU27" t="n">
-        <v>1</v>
-      </c>
+      <c r="AT27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
       <c r="AW27" t="n">
         <v>1</v>
@@ -2430,14 +2474,16 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
@@ -2448,9 +2494,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -2472,26 +2516,28 @@
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
+      <c r="AM28" t="n">
+        <v>1</v>
+      </c>
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
       <c r="AT28" t="inlineStr"/>
       <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
-      <c r="AW28" t="inlineStr"/>
+      <c r="AW28" t="n">
+        <v>1</v>
+      </c>
       <c r="AX28" t="inlineStr"/>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -2507,27 +2553,31 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
+      <c r="AA29" t="n">
+        <v>1</v>
+      </c>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
@@ -2536,11 +2586,11 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
+      <c r="AP29" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
       <c r="AT29" t="inlineStr"/>
       <c r="AU29" t="inlineStr"/>
@@ -2552,24 +2602,24 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
         <v>1</v>
       </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
         <v>1</v>
       </c>
@@ -2579,16 +2629,24 @@
       <c r="K30" t="n">
         <v>1</v>
       </c>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
       <c r="T30" t="n">
         <v>1</v>
       </c>
@@ -2597,49 +2655,51 @@
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
+      <c r="Z30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1</v>
+      </c>
       <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
+      <c r="AC30" t="n">
+        <v>1</v>
+      </c>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="n">
         <v>1</v>
       </c>
-      <c r="AF30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="n">
         <v>1</v>
       </c>
-      <c r="AK30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
+      <c r="AM30" t="n">
+        <v>1</v>
+      </c>
       <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
+      <c r="AO30" t="n">
+        <v>1</v>
+      </c>
       <c r="AP30" t="n">
         <v>1</v>
       </c>
-      <c r="AQ30" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ30" t="inlineStr"/>
       <c r="AR30" t="n">
         <v>1</v>
       </c>
       <c r="AS30" t="inlineStr"/>
-      <c r="AT30" t="inlineStr"/>
-      <c r="AU30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV30" t="inlineStr"/>
+      <c r="AT30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU30" t="inlineStr"/>
+      <c r="AV30" t="n">
+        <v>1</v>
+      </c>
       <c r="AW30" t="n">
         <v>1</v>
       </c>
@@ -2649,12 +2709,14 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -2665,11 +2727,11 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
@@ -2685,22 +2747,24 @@
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
+      <c r="AI31" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
+      <c r="AK31" t="n">
+        <v>1</v>
+      </c>
       <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="inlineStr"/>
+      <c r="AP31" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
       <c r="AT31" t="inlineStr"/>
       <c r="AU31" t="inlineStr"/>
@@ -2712,7 +2776,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -2728,19 +2792,25 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
+      <c r="T32" t="n">
+        <v>1</v>
+      </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
+      <c r="AA32" t="n">
+        <v>1</v>
+      </c>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
@@ -2755,7 +2825,9 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="inlineStr"/>
+      <c r="AP32" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ32" t="inlineStr"/>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -2769,21 +2841,21 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>1</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
@@ -2797,18 +2869,16 @@
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
+      <c r="AA33" t="n">
+        <v>1</v>
+      </c>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr"/>
       <c r="AI33" t="inlineStr"/>
@@ -2818,14 +2888,14 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr"/>
-      <c r="AP33" t="inlineStr"/>
+      <c r="AP33" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ33" t="inlineStr"/>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
       <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU33" t="inlineStr"/>
       <c r="AV33" t="inlineStr"/>
       <c r="AW33" t="inlineStr"/>
       <c r="AX33" t="inlineStr"/>
@@ -2834,14 +2904,16 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
@@ -2852,9 +2924,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
@@ -2880,27 +2950,31 @@
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR34" t="inlineStr"/>
       <c r="AS34" t="inlineStr"/>
       <c r="AT34" t="inlineStr"/>
       <c r="AU34" t="inlineStr"/>
       <c r="AV34" t="inlineStr"/>
-      <c r="AW34" t="inlineStr"/>
+      <c r="AW34" t="n">
+        <v>1</v>
+      </c>
       <c r="AX34" t="inlineStr"/>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -2915,9 +2989,7 @@
         <v>1</v>
       </c>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
@@ -2927,7 +2999,9 @@
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
+      <c r="AA35" t="n">
+        <v>1</v>
+      </c>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
@@ -2937,16 +3011,18 @@
       <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
+      <c r="AK35" t="n">
+        <v>1</v>
+      </c>
       <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
+      <c r="AP35" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
       <c r="AT35" t="inlineStr"/>
       <c r="AU35" t="inlineStr"/>
@@ -2958,7 +3034,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -2970,48 +3046,48 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>1</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>1</v>
+      </c>
       <c r="U36" t="inlineStr"/>
-      <c r="V36" t="n">
-        <v>1</v>
-      </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
+      <c r="AA36" t="n">
+        <v>1</v>
+      </c>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
+      <c r="AI36" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ36" t="inlineStr"/>
       <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="inlineStr"/>
+      <c r="AP36" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ36" t="inlineStr"/>
       <c r="AR36" t="inlineStr"/>
       <c r="AS36" t="inlineStr"/>
@@ -3025,7 +3101,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -3041,11 +3117,11 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
       <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -3053,9 +3129,13 @@
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
+      <c r="Y37" t="n">
+        <v>1</v>
+      </c>
       <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
+      <c r="AA37" t="n">
+        <v>1</v>
+      </c>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
@@ -3070,11 +3150,11 @@
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="inlineStr"/>
+      <c r="AP37" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
       <c r="AT37" t="inlineStr"/>
       <c r="AU37" t="inlineStr"/>
@@ -3086,7 +3166,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -3104,9 +3184,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -3122,12 +3200,8 @@
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr"/>
       <c r="AK38" t="inlineStr"/>
@@ -3137,9 +3211,7 @@
       <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
       <c r="AT38" t="inlineStr"/>
       <c r="AU38" t="inlineStr"/>
@@ -3151,24 +3223,22 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3178,9 +3248,7 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
-      <c r="V39" t="n">
-        <v>1</v>
-      </c>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -3190,9 +3258,7 @@
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
       <c r="AI39" t="inlineStr"/>
@@ -3202,14 +3268,14 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
-      <c r="AP39" t="inlineStr"/>
+      <c r="AP39" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ39" t="inlineStr"/>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
       <c r="AT39" t="inlineStr"/>
-      <c r="AU39" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU39" t="inlineStr"/>
       <c r="AV39" t="inlineStr"/>
       <c r="AW39" t="inlineStr"/>
       <c r="AX39" t="inlineStr"/>
@@ -3218,77 +3284,47 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1</v>
-      </c>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>1</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
-      <c r="T40" t="n">
-        <v>1</v>
-      </c>
+      <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="n">
+        <v>1</v>
+      </c>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
       <c r="AL40" t="inlineStr"/>
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr"/>
@@ -3296,39 +3332,29 @@
       <c r="AP40" t="n">
         <v>1</v>
       </c>
-      <c r="AQ40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="inlineStr"/>
+      <c r="AS40" t="inlineStr"/>
       <c r="AT40" t="inlineStr"/>
-      <c r="AU40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU40" t="inlineStr"/>
       <c r="AV40" t="inlineStr"/>
-      <c r="AW40" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW40" t="inlineStr"/>
+      <c r="AX40" t="inlineStr"/>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -3337,13 +3363,9 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="n">
-        <v>1</v>
-      </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
@@ -3365,26 +3387,28 @@
       <c r="AJ41" t="inlineStr"/>
       <c r="AK41" t="inlineStr"/>
       <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="inlineStr"/>
+      <c r="AM41" t="n">
+        <v>1</v>
+      </c>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
       <c r="AT41" t="inlineStr"/>
       <c r="AU41" t="inlineStr"/>
       <c r="AV41" t="inlineStr"/>
-      <c r="AW41" t="inlineStr"/>
+      <c r="AW41" t="n">
+        <v>1</v>
+      </c>
       <c r="AX41" t="inlineStr"/>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -3396,14 +3420,10 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>1</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
-        <v>1</v>
-      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
@@ -3421,9 +3441,7 @@
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="inlineStr"/>
       <c r="AI42" t="inlineStr"/>
@@ -3438,90 +3456,132 @@
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
       <c r="AT42" t="inlineStr"/>
-      <c r="AU42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU42" t="inlineStr"/>
       <c r="AV42" t="inlineStr"/>
       <c r="AW42" t="inlineStr"/>
       <c r="AX42" t="inlineStr"/>
-      <c r="AY42" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="n">
-        <v>1</v>
-      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="n">
-        <v>1</v>
-      </c>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
       <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
+      <c r="W43" t="n">
+        <v>1</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1</v>
+      </c>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
+      <c r="AC43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>1</v>
+      </c>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
+      <c r="AJ43" t="n">
+        <v>1</v>
+      </c>
       <c r="AK43" t="inlineStr"/>
       <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="inlineStr"/>
+      <c r="AM43" t="n">
+        <v>1</v>
+      </c>
       <c r="AN43" t="inlineStr"/>
-      <c r="AO43" t="inlineStr"/>
-      <c r="AP43" t="inlineStr"/>
+      <c r="AO43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ43" t="inlineStr"/>
       <c r="AR43" t="n">
         <v>1</v>
       </c>
       <c r="AS43" t="inlineStr"/>
-      <c r="AT43" t="inlineStr"/>
+      <c r="AT43" t="n">
+        <v>1</v>
+      </c>
       <c r="AU43" t="inlineStr"/>
       <c r="AV43" t="inlineStr"/>
-      <c r="AW43" t="inlineStr"/>
+      <c r="AW43" t="n">
+        <v>1</v>
+      </c>
       <c r="AX43" t="inlineStr"/>
-      <c r="AY43" t="inlineStr"/>
+      <c r="AY43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
@@ -3537,14 +3597,18 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
+      <c r="T44" t="n">
+        <v>1</v>
+      </c>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
+      <c r="AA44" t="n">
+        <v>1</v>
+      </c>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
@@ -3559,7 +3623,9 @@
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
-      <c r="AP44" t="inlineStr"/>
+      <c r="AP44" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ44" t="inlineStr"/>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
@@ -3573,12 +3639,14 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -3601,7 +3669,9 @@
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
+      <c r="AA45" t="n">
+        <v>1</v>
+      </c>
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="inlineStr"/>
@@ -3616,7 +3686,9 @@
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr"/>
       <c r="AO45" t="inlineStr"/>
-      <c r="AP45" t="inlineStr"/>
+      <c r="AP45" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ45" t="inlineStr"/>
       <c r="AR45" t="inlineStr"/>
       <c r="AS45" t="inlineStr"/>
@@ -3630,12 +3702,14 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -3646,11 +3720,11 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -3660,30 +3734,30 @@
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
+      <c r="AA46" t="n">
+        <v>1</v>
+      </c>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
       <c r="AI46" t="inlineStr"/>
       <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="inlineStr"/>
+      <c r="AK46" t="n">
+        <v>1</v>
+      </c>
       <c r="AL46" t="inlineStr"/>
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr"/>
       <c r="AO46" t="inlineStr"/>
-      <c r="AP46" t="inlineStr"/>
+      <c r="AP46" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ46" t="inlineStr"/>
-      <c r="AR46" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr"/>
       <c r="AT46" t="inlineStr"/>
       <c r="AU46" t="inlineStr"/>
@@ -3695,59 +3769,111 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
       <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="n">
+        <v>1</v>
+      </c>
       <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
+      <c r="Y47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1</v>
+      </c>
       <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr"/>
+      <c r="AC47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1</v>
+      </c>
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr"/>
       <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="inlineStr"/>
+      <c r="AJ47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1</v>
+      </c>
       <c r="AL47" t="inlineStr"/>
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr"/>
-      <c r="AP47" t="inlineStr"/>
+      <c r="AP47" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ47" t="inlineStr"/>
-      <c r="AR47" t="inlineStr"/>
+      <c r="AR47" t="n">
+        <v>1</v>
+      </c>
       <c r="AS47" t="inlineStr"/>
-      <c r="AT47" t="inlineStr"/>
+      <c r="AT47" t="n">
+        <v>1</v>
+      </c>
       <c r="AU47" t="inlineStr"/>
       <c r="AV47" t="inlineStr"/>
-      <c r="AW47" t="inlineStr"/>
+      <c r="AW47" t="n">
+        <v>1</v>
+      </c>
       <c r="AX47" t="inlineStr"/>
-      <c r="AY47" t="inlineStr"/>
+      <c r="AY47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -3757,16 +3883,16 @@
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>1</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr"/>
@@ -3780,20 +3906,16 @@
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="n">
-        <v>1</v>
-      </c>
+      <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
+      <c r="AA48" t="n">
+        <v>1</v>
+      </c>
       <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="inlineStr"/>
       <c r="AI48" t="inlineStr"/>
@@ -3803,20 +3925,18 @@
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr"/>
-      <c r="AP48" t="inlineStr"/>
+      <c r="AP48" t="n">
+        <v>1</v>
+      </c>
       <c r="AQ48" t="inlineStr"/>
       <c r="AR48" t="inlineStr"/>
       <c r="AS48" t="inlineStr"/>
       <c r="AT48" t="inlineStr"/>
-      <c r="AU48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU48" t="inlineStr"/>
       <c r="AV48" t="inlineStr"/>
       <c r="AW48" t="inlineStr"/>
       <c r="AX48" t="inlineStr"/>
-      <c r="AY48" t="n">
-        <v>1</v>
-      </c>
+      <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -3825,58 +3945,110 @@
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
         <v>1</v>
       </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
+      <c r="W49" t="n">
+        <v>1</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1</v>
+      </c>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
+      <c r="AA49" t="n">
+        <v>1</v>
+      </c>
       <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG49" t="inlineStr"/>
+      <c r="AC49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="n">
+        <v>1</v>
+      </c>
       <c r="AH49" t="inlineStr"/>
       <c r="AI49" t="inlineStr"/>
-      <c r="AJ49" t="inlineStr"/>
+      <c r="AJ49" t="n">
+        <v>1</v>
+      </c>
       <c r="AK49" t="inlineStr"/>
       <c r="AL49" t="inlineStr"/>
-      <c r="AM49" t="inlineStr"/>
-      <c r="AN49" t="inlineStr"/>
+      <c r="AM49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1</v>
+      </c>
       <c r="AO49" t="inlineStr"/>
-      <c r="AP49" t="inlineStr"/>
-      <c r="AQ49" t="inlineStr"/>
-      <c r="AR49" t="inlineStr"/>
+      <c r="AP49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>1</v>
+      </c>
       <c r="AS49" t="inlineStr"/>
-      <c r="AT49" t="inlineStr"/>
+      <c r="AT49" t="n">
+        <v>1</v>
+      </c>
       <c r="AU49" t="inlineStr"/>
-      <c r="AV49" t="inlineStr"/>
+      <c r="AV49" t="n">
+        <v>1</v>
+      </c>
       <c r="AW49" t="inlineStr"/>
-      <c r="AX49" t="inlineStr"/>
+      <c r="AX49" t="n">
+        <v>1</v>
+      </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -3898,13 +4070,9 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
-      <c r="O50" t="n">
-        <v>1</v>
-      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
@@ -3920,9 +4088,7 @@
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
       <c r="AF50" t="inlineStr"/>
-      <c r="AG50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AG50" t="inlineStr"/>
       <c r="AH50" t="inlineStr"/>
       <c r="AI50" t="inlineStr"/>
       <c r="AJ50" t="inlineStr"/>
@@ -3933,9 +4099,7 @@
       <c r="AO50" t="inlineStr"/>
       <c r="AP50" t="inlineStr"/>
       <c r="AQ50" t="inlineStr"/>
-      <c r="AR50" t="n">
-        <v>1</v>
-      </c>
+      <c r="AR50" t="inlineStr"/>
       <c r="AS50" t="inlineStr"/>
       <c r="AT50" t="inlineStr"/>
       <c r="AU50" t="inlineStr"/>
@@ -3951,25 +4115,43 @@
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
       <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="n">
-        <v>1</v>
-      </c>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3977,31 +4159,57 @@
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
+      <c r="AA51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1</v>
+      </c>
       <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
+      <c r="AE51" t="n">
+        <v>1</v>
+      </c>
       <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="inlineStr"/>
+      <c r="AG51" t="n">
+        <v>1</v>
+      </c>
       <c r="AH51" t="inlineStr"/>
       <c r="AI51" t="inlineStr"/>
-      <c r="AJ51" t="inlineStr"/>
+      <c r="AJ51" t="n">
+        <v>1</v>
+      </c>
       <c r="AK51" t="inlineStr"/>
       <c r="AL51" t="inlineStr"/>
-      <c r="AM51" t="inlineStr"/>
+      <c r="AM51" t="n">
+        <v>1</v>
+      </c>
       <c r="AN51" t="inlineStr"/>
-      <c r="AO51" t="inlineStr"/>
-      <c r="AP51" t="inlineStr"/>
-      <c r="AQ51" t="inlineStr"/>
+      <c r="AO51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>1</v>
+      </c>
       <c r="AR51" t="n">
         <v>1</v>
       </c>
       <c r="AS51" t="inlineStr"/>
-      <c r="AT51" t="inlineStr"/>
+      <c r="AT51" t="n">
+        <v>1</v>
+      </c>
       <c r="AU51" t="inlineStr"/>
-      <c r="AV51" t="inlineStr"/>
-      <c r="AW51" t="inlineStr"/>
+      <c r="AV51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>1</v>
+      </c>
       <c r="AX51" t="inlineStr"/>
       <c r="AY51" t="inlineStr"/>
     </row>
@@ -4015,62 +4223,74 @@
       <c r="C52" t="n">
         <v>1</v>
       </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>1</v>
       </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="n">
-        <v>1</v>
-      </c>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="n">
-        <v>1</v>
-      </c>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1</v>
+      </c>
       <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="n">
         <v>1</v>
       </c>
-      <c r="AA52" t="inlineStr"/>
+      <c r="AA52" t="n">
+        <v>1</v>
+      </c>
       <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="n">
         <v>1</v>
       </c>
-      <c r="AF52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="inlineStr"/>
-      <c r="AH52" t="inlineStr"/>
-      <c r="AI52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI52" t="inlineStr"/>
       <c r="AJ52" t="n">
         <v>1</v>
       </c>
@@ -4078,7 +4298,9 @@
         <v>1</v>
       </c>
       <c r="AL52" t="inlineStr"/>
-      <c r="AM52" t="inlineStr"/>
+      <c r="AM52" t="n">
+        <v>1</v>
+      </c>
       <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="inlineStr"/>
       <c r="AP52" t="n">
@@ -4088,13 +4310,11 @@
       <c r="AR52" t="n">
         <v>1</v>
       </c>
-      <c r="AS52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT52" t="inlineStr"/>
-      <c r="AU52" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS52" t="inlineStr"/>
+      <c r="AT52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU52" t="inlineStr"/>
       <c r="AV52" t="inlineStr"/>
       <c r="AW52" t="n">
         <v>1</v>
@@ -4113,16 +4333,12 @@
         <v>1</v>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="n">
         <v>1</v>
       </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
         <v>1</v>
       </c>
@@ -4132,76 +4348,84 @@
       <c r="K53" t="n">
         <v>1</v>
       </c>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="n">
-        <v>1</v>
-      </c>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
       <c r="T53" t="n">
         <v>1</v>
       </c>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="n">
-        <v>1</v>
-      </c>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
+      <c r="X53" t="n">
+        <v>1</v>
+      </c>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="n">
         <v>1</v>
       </c>
-      <c r="AA53" t="inlineStr"/>
+      <c r="AA53" t="n">
+        <v>1</v>
+      </c>
       <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="inlineStr"/>
+      <c r="AC53" t="n">
+        <v>1</v>
+      </c>
       <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="inlineStr"/>
-      <c r="AI53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI53" t="inlineStr"/>
       <c r="AJ53" t="n">
         <v>1</v>
       </c>
-      <c r="AK53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK53" t="inlineStr"/>
       <c r="AL53" t="inlineStr"/>
-      <c r="AM53" t="inlineStr"/>
+      <c r="AM53" t="n">
+        <v>1</v>
+      </c>
       <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="inlineStr"/>
       <c r="AP53" t="n">
         <v>1</v>
       </c>
-      <c r="AQ53" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ53" t="inlineStr"/>
       <c r="AR53" t="n">
         <v>1</v>
       </c>
-      <c r="AS53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT53" t="inlineStr"/>
-      <c r="AU53" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV53" t="inlineStr"/>
+      <c r="AS53" t="inlineStr"/>
+      <c r="AT53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU53" t="inlineStr"/>
+      <c r="AV53" t="n">
+        <v>1</v>
+      </c>
       <c r="AW53" t="n">
         <v>1</v>
       </c>
       <c r="AX53" t="inlineStr"/>
-      <c r="AY53" t="inlineStr"/>
+      <c r="AY53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -4213,28 +4437,34 @@
       <c r="C54" t="n">
         <v>1</v>
       </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>1</v>
+      </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>1</v>
       </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="n">
-        <v>1</v>
-      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4242,58 +4472,64 @@
       <c r="R54" t="n">
         <v>1</v>
       </c>
-      <c r="S54" t="inlineStr"/>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
       <c r="T54" t="n">
         <v>1</v>
       </c>
-      <c r="U54" t="inlineStr"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
+      <c r="X54" t="n">
+        <v>1</v>
+      </c>
       <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="n">
+        <v>1</v>
+      </c>
       <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
+      <c r="AC54" t="n">
+        <v>1</v>
+      </c>
       <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AE54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="n">
         <v>1</v>
       </c>
-      <c r="AI54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI54" t="inlineStr"/>
       <c r="AJ54" t="n">
         <v>1</v>
       </c>
-      <c r="AK54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK54" t="inlineStr"/>
       <c r="AL54" t="inlineStr"/>
-      <c r="AM54" t="inlineStr"/>
+      <c r="AM54" t="n">
+        <v>1</v>
+      </c>
       <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="n">
         <v>1</v>
       </c>
-      <c r="AQ54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR54" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ54" t="inlineStr"/>
+      <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr"/>
-      <c r="AT54" t="inlineStr"/>
+      <c r="AT54" t="n">
+        <v>1</v>
+      </c>
       <c r="AU54" t="n">
         <v>1</v>
       </c>
-      <c r="AV54" t="inlineStr"/>
+      <c r="AV54" t="n">
+        <v>1</v>
+      </c>
       <c r="AW54" t="n">
         <v>1</v>
       </c>
@@ -4307,35 +4543,23 @@
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="n">
-        <v>1</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>1</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="n">
@@ -4345,63 +4569,37 @@
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="n">
+        <v>1</v>
+      </c>
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="inlineStr"/>
-      <c r="AF55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="inlineStr"/>
-      <c r="AI55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI55" t="inlineStr"/>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="n">
         <v>1</v>
       </c>
-      <c r="AQ55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ55" t="inlineStr"/>
+      <c r="AR55" t="inlineStr"/>
+      <c r="AS55" t="inlineStr"/>
       <c r="AT55" t="inlineStr"/>
       <c r="AU55" t="inlineStr"/>
       <c r="AV55" t="inlineStr"/>
-      <c r="AW55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX55" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY55" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW55" t="inlineStr"/>
+      <c r="AX55" t="inlineStr"/>
+      <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -4413,17 +4611,17 @@
       <c r="C56" t="n">
         <v>1</v>
       </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" t="inlineStr"/>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
       <c r="G56" t="n">
         <v>1</v>
       </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
         <v>1</v>
       </c>
@@ -4431,46 +4629,54 @@
       <c r="K56" t="n">
         <v>1</v>
       </c>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="n">
-        <v>1</v>
-      </c>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>1</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
       <c r="T56" t="n">
         <v>1</v>
       </c>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="n">
-        <v>1</v>
-      </c>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="n">
+        <v>1</v>
+      </c>
       <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr"/>
-      <c r="AE56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="n">
         <v>1</v>
       </c>
-      <c r="AH56" t="inlineStr"/>
-      <c r="AI56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AH56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI56" t="inlineStr"/>
       <c r="AJ56" t="n">
         <v>1</v>
       </c>
@@ -4478,32 +4684,30 @@
         <v>1</v>
       </c>
       <c r="AL56" t="inlineStr"/>
-      <c r="AM56" t="inlineStr"/>
-      <c r="AN56" t="inlineStr"/>
+      <c r="AM56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1</v>
+      </c>
       <c r="AO56" t="inlineStr"/>
       <c r="AP56" t="n">
         <v>1</v>
       </c>
-      <c r="AQ56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AQ56" t="inlineStr"/>
       <c r="AR56" t="n">
         <v>1</v>
       </c>
-      <c r="AS56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT56" t="inlineStr"/>
-      <c r="AU56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AS56" t="inlineStr"/>
+      <c r="AT56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU56" t="inlineStr"/>
       <c r="AV56" t="inlineStr"/>
       <c r="AW56" t="n">
         <v>1</v>
       </c>
-      <c r="AX56" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX56" t="inlineStr"/>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -4516,73 +4720,79 @@
       <c r="C57" t="n">
         <v>1</v>
       </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="n">
-        <v>1</v>
-      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="n">
         <v>1</v>
       </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
         <v>1</v>
       </c>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="n">
-        <v>1</v>
-      </c>
-      <c r="R57" t="inlineStr"/>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
       <c r="S57" t="n">
         <v>1</v>
       </c>
       <c r="T57" t="n">
         <v>1</v>
       </c>
-      <c r="U57" t="inlineStr"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
       <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
+      <c r="W57" t="n">
+        <v>1</v>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="n">
-        <v>1</v>
-      </c>
+      <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AC57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI57" t="inlineStr"/>
       <c r="AJ57" t="n">
         <v>1</v>
       </c>
       <c r="AK57" t="n">
         <v>1</v>
       </c>
-      <c r="AL57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM57" t="inlineStr"/>
-      <c r="AN57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1</v>
+      </c>
       <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="n">
         <v>1</v>
@@ -4595,19 +4805,13 @@
         <v>1</v>
       </c>
       <c r="AT57" t="inlineStr"/>
-      <c r="AU57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU57" t="inlineStr"/>
       <c r="AV57" t="inlineStr"/>
       <c r="AW57" t="n">
         <v>1</v>
       </c>
-      <c r="AX57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY57" t="n">
-        <v>1</v>
-      </c>
+      <c r="AX57" t="inlineStr"/>
+      <c r="AY57" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4657,7 +4861,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
@@ -4668,11 +4872,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -4683,11 +4887,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -4702,28 +4906,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4732,13 +4936,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4747,13 +4951,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -4762,13 +4966,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -4777,13 +4981,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -4792,28 +4996,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -4822,52 +5026,52 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -4878,17 +5082,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -4897,13 +5101,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -4912,28 +5116,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4942,13 +5146,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4957,43 +5161,43 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>68</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -5002,28 +5206,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5032,28 +5236,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5062,13 +5266,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5077,13 +5281,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5092,58 +5296,58 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5152,28 +5356,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5182,133 +5386,133 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5317,22 +5521,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48">
@@ -5343,11 +5547,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
@@ -5358,11 +5562,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50">
@@ -5373,11 +5577,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AB</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51">
@@ -5388,11 +5592,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52">
@@ -5407,7 +5611,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
@@ -5422,7 +5626,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54">
@@ -5437,7 +5641,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55">
@@ -5448,11 +5652,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56">
@@ -5467,7 +5671,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -5482,7 +5686,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5533,7 +5737,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8742382837959877</v>
+        <v>0.9380196535335916</v>
       </c>
     </row>
     <row r="3">
@@ -5548,7 +5752,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.006338300228004035</v>
+        <v>0.04327604512194833</v>
       </c>
     </row>
     <row r="4">
@@ -5559,11 +5763,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.993167578510727</v>
+        <v>0.1952161447998333</v>
       </c>
     </row>
     <row r="5">
@@ -5578,28 +5782,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.007862757759784544</v>
+        <v>0.9839408590541678</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8027693507636392</v>
+        <v>0.2986751905204725</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -5608,13 +5812,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.02467931653398025</v>
+        <v>0.02381027538652674</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -5623,13 +5827,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1692415626121607</v>
+        <v>0.9710258064779537</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -5638,13 +5842,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8359054529737971</v>
+        <v>0.003402903555889208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -5653,43 +5857,43 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6164945750748702</v>
+        <v>0.7867479731775983</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.002557190524356479</v>
+        <v>0.02719056229539121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9680393802683497</v>
+        <v>0.04553333353728053</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -5698,28 +5902,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9857528187760681</v>
+        <v>0.7196678628606755</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9907419693360032</v>
+        <v>0.02995382653159545</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -5728,13 +5932,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5342983724710455</v>
+        <v>0.5593493497205155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -5743,7 +5947,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8796871865265798</v>
+        <v>0.8176949381827849</v>
       </c>
     </row>
     <row r="17">
@@ -5754,17 +5958,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.03104688301530054</v>
+        <v>0.9486266855004416</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -5773,13 +5977,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.5844559031325938</v>
+        <v>0.04994096549547068</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -5788,28 +5992,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.8271871248730804</v>
+        <v>0.02812105492076409</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.008424361531180103</v>
+        <v>0.3433967133918339</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -5818,73 +6022,73 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.8964453369527897</v>
+        <v>0.0947232423294069</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.5520370371989307</v>
+        <v>0.7696419918559568</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.9887650718883322</v>
+        <v>0.7563832327645359</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9951993660440198</v>
+        <v>0.6258966638249507</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.7061346342522714</v>
+        <v>0.773464369515022</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5893,28 +6097,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4006725521138131</v>
+        <v>0.4434192275705015</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.937693141535714</v>
+        <v>0.1672143026981194</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5923,13 +6127,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.9852163449360438</v>
+        <v>0.8099633425081716</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5938,13 +6142,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.99049840499117</v>
+        <v>0.02838508479518655</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5953,88 +6157,88 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.7836566350445152</v>
+        <v>0.5474136445090998</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.2416722490026653</v>
+        <v>0.5343227759409621</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.03441886140150492</v>
+        <v>0.9986080773556919</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5899172784959189</v>
+        <v>0.576853741054813</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.923782865063594</v>
+        <v>0.8303932047271876</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01924621708717503</v>
+        <v>0.9038194658654199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6043,58 +6247,58 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.03788345813728679</v>
+        <v>0.02225559519989557</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01404740650710433</v>
+        <v>0.8030113129414326</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.8703001743678966</v>
+        <v>0.9797456718390887</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.9917797253269338</v>
+        <v>0.04238669363797964</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -6103,73 +6307,73 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.9895231709274704</v>
+        <v>0.9039356173282286</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.9735968969687218</v>
+        <v>0.5175140390125927</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.01980492787841436</v>
+        <v>0.00214711729344676</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.0358602507201467</v>
+        <v>0.7859111194062025</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.04361343582864374</v>
+        <v>0.04367658079644171</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6178,13 +6382,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.1397627987710482</v>
+        <v>0.9733999445362382</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6193,13 +6397,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.9898505766694894</v>
+        <v>0.01514127239246176</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6208,7 +6412,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.0365887220216622</v>
+        <v>0.6923537050117865</v>
       </c>
     </row>
     <row r="48">
@@ -6223,7 +6427,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.9991421107769148</v>
+        <v>0.5544790637026907</v>
       </c>
     </row>
     <row r="49">
@@ -6234,11 +6438,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.004016890843669019</v>
+        <v>0.07351729484262287</v>
       </c>
     </row>
     <row r="50">
@@ -6249,11 +6453,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.6672019181207297</v>
+        <v>0.9901354808920595</v>
       </c>
     </row>
     <row r="51">
@@ -6264,11 +6468,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.8901901456262673</v>
+        <v>0.6965285690024331</v>
       </c>
     </row>
   </sheetData>
